--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1850,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10">
         <f>SUM(E35:L37)</f>
-        <v>121.3125</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1895,7 +1895,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="12">
         <f>SUM(I35:L37)</f>
-        <v>121.3125</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>29</v>
@@ -1910,7 +1910,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="14">
         <f>SUM(M35:V37)</f>
-        <v>459.375</v>
+        <v>252.1875</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>30</v>
@@ -2339,28 +2339,28 @@
         <v>23</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R24" s="20" t="s">
         <v>16</v>
@@ -2393,19 +2393,19 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>100.875</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>45.262500000000003</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>166.48750000000001</v>
+        <v>100.78749999999999</v>
       </c>
       <c r="AG24" s="1"/>
     </row>
@@ -2432,28 +2432,28 @@
         <v>23</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>16</v>
@@ -2486,11 +2486,11 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>131.13750000000002</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>171.48750000000004</v>
+        <v>100.78749999999999</v>
       </c>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="18" t="s">
@@ -2525,28 +2525,28 @@
         <v>23</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>16</v>
@@ -2579,11 +2579,11 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>110.96250000000001</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>161.48750000000001</v>
+        <v>100.78749999999999</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="18" t="s">
@@ -2618,28 +2618,28 @@
         <v>23</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>16</v>
@@ -2672,11 +2672,11 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>110.96250000000001</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>161.48750000000001</v>
+        <v>100.78749999999999</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="18" t="s">
@@ -2710,29 +2710,29 @@
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>16</v>
+      <c r="J28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>16</v>
@@ -2765,11 +2765,11 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>131.13750000000002</v>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>171.48750000000004</v>
+        <v>100.78749999999999</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -3303,11 +3303,11 @@
       </c>
       <c r="J35" s="3">
         <f t="shared" si="7"/>
-        <v>15.262500000000001</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="7"/>
-        <v>15.262500000000001</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="7"/>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" si="7"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="7"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <f t="shared" si="7"/>
@@ -3407,15 +3407,15 @@
       </c>
       <c r="J36" s="3">
         <f t="shared" si="8"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="8"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="8"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3">
         <f t="shared" si="8"/>
@@ -3427,15 +3427,15 @@
       </c>
       <c r="O36" s="3">
         <f t="shared" si="8"/>
-        <v>40.35</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
         <f t="shared" si="8"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="3">
         <f t="shared" si="8"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" si="8"/>
@@ -3479,19 +3479,19 @@
       </c>
       <c r="AC36" s="17">
         <f t="shared" ref="AC36:AF36" si="9">SUM(AC24:AC34)</f>
-        <v>81.399999999999991</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="17">
         <f t="shared" si="9"/>
-        <v>585.07500000000005</v>
+        <v>353.0625</v>
       </c>
       <c r="AE36" s="17">
         <f t="shared" si="9"/>
-        <v>165.96250000000001</v>
+        <v>150.875</v>
       </c>
       <c r="AF36" s="17">
         <f t="shared" si="9"/>
-        <v>832.43750000000011</v>
+        <v>503.9375</v>
       </c>
       <c r="AG36" s="17" t="s">
         <v>4</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="O37" s="3">
         <f t="shared" si="10"/>
-        <v>15.0875</v>
+        <v>0</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="10"/>
@@ -3772,35 +3772,35 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="11"/>
-        <v>35.4375</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="11"/>
-        <v>35.4375</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="11"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="11"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="11"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <f t="shared" si="11"/>
-        <v>55.4375</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <f t="shared" si="11"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="11"/>
-        <v>50.4375</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="11"/>
@@ -3846,7 +3846,7 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="17">
         <f>SUM(E42:Z42)</f>
-        <v>832.4375</v>
+        <v>503.9375</v>
       </c>
       <c r="AF42" s="17"/>
       <c r="AG42" s="17" t="s">
@@ -3875,27 +3875,27 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3">
         <f>SUM(I42:J42)</f>
-        <v>35.4375</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3">
         <f>SUM(K42:L42)</f>
-        <v>85.875</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3">
         <f>SUM(M42:N42)</f>
-        <v>50.875</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3">
         <f>SUM(O42:P42)</f>
-        <v>105.875</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3">
         <f>SUM(Q42:R42)</f>
-        <v>100.875</v>
+        <v>50.4375</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3">
@@ -3925,7 +3925,7 @@
       <c r="AD43" s="17"/>
       <c r="AE43" s="17">
         <f>SUM(D43:Z43)</f>
-        <v>832.4375</v>
+        <v>503.9375</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" s="17" t="s">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="C47" s="30">
         <f>AE43</f>
-        <v>832.4375</v>
+        <v>503.9375</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>44</v>
@@ -37663,37 +37663,37 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z26 Y27:Z27">
+  <conditionalFormatting sqref="Y27:Z27 R24:Z26">
     <cfRule type="cellIs" dxfId="5" priority="39" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z26 Y27:Z27">
+  <conditionalFormatting sqref="Y27:Z27 R24:Z26">
     <cfRule type="cellIs" dxfId="4" priority="40" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z26 Y27:Z27">
+  <conditionalFormatting sqref="Y27:Z27 R24:Z26">
     <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O26 E27:X27 E28:Z33">
+  <conditionalFormatting sqref="E29:Z33 R28:Z28 R27:X27 E24:Q28">
     <cfRule type="cellIs" dxfId="2" priority="42" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O26 E27:X27 E28:Z33">
+  <conditionalFormatting sqref="E29:Z33 R28:Z28 R27:X27 E24:Q28">
     <cfRule type="cellIs" dxfId="1" priority="43" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O26 E27:X27 E28:Z33">
+  <conditionalFormatting sqref="E29:Z33 R28:Z28 R27:X27 E24:Q28">
     <cfRule type="cellIs" dxfId="0" priority="44" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
